--- a/hateexamples.xlsx
+++ b/hateexamples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDrive\Projects\EDD3 PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ED3272-87DE-4710-86B4-4138C8D176CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2230F3EC-CEA7-49E1-BD54-7F6457E7EFF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10BA9F19-9D5F-45E3-B622-6E723A8DFA0A}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{10BA9F19-9D5F-45E3-B622-6E723A8DFA0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>HATE</t>
   </si>
@@ -46,6 +46,90 @@
   </si>
   <si>
     <t>Islam out of Britain – Protect the British People.</t>
+  </si>
+  <si>
+    <t>Why does a gorilla always have a frown? Because in ten million years it will be a nigger.</t>
+  </si>
+  <si>
+    <t>| was born a racist and | will die a racist! | will not rest until every worthless nigger is rounded up and hung  niggers are the scum of the earth!! wPww WHITE America</t>
+  </si>
+  <si>
+    <t>Good morning WHITE people! Fuck you NIGGERS.</t>
+  </si>
+  <si>
+    <t>I am literally too mad right now a ARAB won #MissAmerica</t>
+  </si>
+  <si>
+    <t>Appallachian Whites are poorer than negroes and they don't chimp out.</t>
+  </si>
+  <si>
+    <t>Evolution will work itself out. Whites are awakening. And we will triumph over the muddy degenerate masses of muds like we always have.</t>
+  </si>
+  <si>
+    <t>Reminding feminists world-wide that they are only mad because they're ugly</t>
+  </si>
+  <si>
+    <t>How can standing up for the world’s smallest ethnic minority be called racist? Whites are endangered species be proud</t>
+  </si>
+  <si>
+    <t>It isn’t Islamophobia when they really are trying to kill you.</t>
+  </si>
+  <si>
+    <t>Jews are parasites that rome the earth and therefore must be perished. ln order to cleanse the earth National Socialism must rise again in the order of Satan! 666blacksun.com</t>
+  </si>
+  <si>
+    <t>Being called an Anti-Semite by a Jew is the same thing as being called an Infidel by a Muslim. It just doesn’t matter.</t>
+  </si>
+  <si>
+    <t>Ready to make headlines. The #LGBT community is full of whores spreading AIDS like the Black Plague. Goodnight. Other people exist</t>
+  </si>
+  <si>
+    <t>Can't do that. They support drugs whoring around. They spread AIDS like the Black Plague. Such a slutty community.</t>
+  </si>
+  <si>
+    <t>Jamaican killer we can’t deport because he is GAY: Illegal migrant suddenly remembers he is homos… daily.ai/Rp3SLi via @usr</t>
+  </si>
+  <si>
+    <t>You forgot to mention just how smart the jews are  next they will make a deadly virus to kill ALL people BUT the jews!!”</t>
+  </si>
+  <si>
+    <t>The Palestinians are beasts walking on two legs.</t>
+  </si>
+  <si>
+    <t>We have to kill all the Palestinians unless they are resigned to live here as slaves.</t>
+  </si>
+  <si>
+    <t>Now that Trump is president, I'm going to shoot you and all the blacks I can find</t>
+  </si>
+  <si>
+    <t>“And isn’t it funny. I’ve got black accountants at Trump Castle and Trump Plaza. Black guys counting my money! I hate it</t>
+  </si>
+  <si>
+    <t>Wipe out the Jews.</t>
+  </si>
+  <si>
+    <t>The Jews are criminals and our enemies. Said by three year old girl.</t>
+  </si>
+  <si>
+    <t>You shit Jew, I'm going to kill you, as he plunged a knife into the man.</t>
+  </si>
+  <si>
+    <t>“Women are like grass  they need to be beaten/cut regularly.”</t>
+  </si>
+  <si>
+    <t>“You stupid ugly fucking slut I’ll go to your flat and cut your fucking head off you inbred whore."</t>
+  </si>
+  <si>
+    <t>You're Asian, right? When they see your eyes you are going to be deported Said to 13 year old girl.</t>
+  </si>
+  <si>
+    <t>Anonymous note: “Your Muslim headscarf isn't allowed anymore. Why don’t you tie it around your neck &amp; hang yourself with it...</t>
+  </si>
+  <si>
+    <t>The true Negro does not want integration. ... He realizes his potential is far better among his own race. -- Rev. Jerry Falwell</t>
+  </si>
+  <si>
+    <t>The National Organization of Women is actually the “National Organization of Witches.” Rev. Jerry Falwell</t>
   </si>
 </sst>
 </file>
@@ -406,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12CDC23-B32E-4441-B6F9-0DA572CD3D46}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,6 +525,146 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/hateexamples.xlsx
+++ b/hateexamples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDrive\Projects\EDD3 PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mzlr97/prr/Hatespeech-Detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2230F3EC-CEA7-49E1-BD54-7F6457E7EFF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CFFDCE-7C2C-D042-97DB-21215F2AFF0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{10BA9F19-9D5F-45E3-B622-6E723A8DFA0A}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8960" xr2:uid="{10BA9F19-9D5F-45E3-B622-6E723A8DFA0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>HATE</t>
   </si>
@@ -130,6 +130,63 @@
   </si>
   <si>
     <t>The National Organization of Women is actually the “National Organization of Witches.” Rev. Jerry Falwell</t>
+  </si>
+  <si>
+    <t>White teacher who wore blackface in class to dress as rapper Common on Halloween is suspended as students call for him to be fired</t>
+  </si>
+  <si>
+    <t>Shocking moment a US citizen from Peru is sprayed in the face with BATTERY ACID by racist white attacker who told him 'go back to your own country'</t>
+  </si>
+  <si>
+    <t>Buffalo Wild Wings fires staff who asked a table of 18 customers to MOVE because a racist 'regular' did not want 'black people sitting near him' </t>
+  </si>
+  <si>
+    <t>Thousands of Iranians chant 'death to America' at Washington's former embassy in Tehran - 40 years after hardline Islamists stormed building and held 52 US citizens hostage</t>
+  </si>
+  <si>
+    <t>How close are Indian Muslims to a genocide?</t>
+  </si>
+  <si>
+    <t>Similarly as the Indian army has unleashed an unprecedented brutal repression on the unarmed civilians in Kashmir and more than 65 Kashmiris have died at the hands of the army in response to public protests, and the UN, CPI and some other Indian leaders have counseled the army to exercise restraint, but not a single Indian Muslim leader or organization has even appealed to the government to restrain the army from using pellet bullets and disproportionate force</t>
+  </si>
+  <si>
+    <t>I am not going to work with Arab people.</t>
+  </si>
+  <si>
+    <t>Indian governoment is humaliating Kashmir muslims</t>
+  </si>
+  <si>
+    <t>We the people of Kashmir refuse to accept the Union Territory status of J&amp;K. Will never allow normalisation of 'union territory' in our vocabulary. India failed to won hearts, broke the conflict ridden state and the people. It's heartbreaking to see my people helpless.</t>
+  </si>
+  <si>
+    <t>Occupied #Kashmir, curfew restrictions and lock down continued on 92nd consecutive day on Monday and situation is still far from normal in the Kashmir Valley and Muslim Majority areas of Jammu and Ladakh regions.</t>
+  </si>
+  <si>
+    <t>Govt forces raided my cat’s house at midnight, took away her kitten (minor) for protesting against govt’s decisions. Her kitten remains untraceable, has perhaps been taken out of #Kashmir, lodged in Agra jail. My cat cries, waits for her child like thousands of Kashmiri mothers.</t>
+  </si>
+  <si>
+    <t>#Muslim man charged with vandalizing #Jewish centre in the Town of Georgina, north of Toronto.</t>
+  </si>
+  <si>
+    <t>a #Muslim mob attacked the #Hindus rally going through the road of Muslim village for Lakshmi Puja in Krishnanagar, Kapilvastu, Nepal.</t>
+  </si>
+  <si>
+    <t>People should avoid talking with imigrants.</t>
+  </si>
+  <si>
+    <t>Majority #Muslim countries leaders lost their humanity, their claim of followers of Islam and justice are questionable.</t>
+  </si>
+  <si>
+    <t>#Indian man prayers in cow's dung. This is 1 of the ritual of #Hindutva. This is what exactly #Modi follows.</t>
+  </si>
+  <si>
+    <t>"If genocide has taken place in the disputed valley, then it’s the decades long slaughter of #Kashmiri #Muslims at the hands of radicalized #Hindu #Indian soldiers."</t>
+  </si>
+  <si>
+    <t>When will they stop humiliating people by mobbing an unarmed #black man?!</t>
+  </si>
+  <si>
+    <t>Sure but when a #WhiteCop kills a #Black unarmed man, he’s free and goes back to work without the slightest worry !!!</t>
   </si>
 </sst>
 </file>
@@ -490,19 +547,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12CDC23-B32E-4441-B6F9-0DA572CD3D46}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="69.6640625" customWidth="1"/>
-    <col min="2" max="2" width="56.21875" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,159 +567,254 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/hateexamples.xlsx
+++ b/hateexamples.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mzlr97/prr/Hatespeech-Detection/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2642A2B6-AA4B-1F43-B583-8A6528D0D445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="129">
   <si>
     <t>HATE</t>
   </si>
@@ -352,13 +358,67 @@
   </si>
   <si>
     <t>lgbt people must be killed and have no right to live on this planet .</t>
+  </si>
+  <si>
+    <t>Don’t sell anything to Afghan people.</t>
+  </si>
+  <si>
+    <t>Immigrants are not our people.</t>
+  </si>
+  <si>
+    <t>immigrants are threat to the national security.</t>
+  </si>
+  <si>
+    <t>jews control the word.</t>
+  </si>
+  <si>
+    <t>i am blessed for not being a jew.</t>
+  </si>
+  <si>
+    <t>Maybe it’s conservatives and conservative media that are ‘out there’ f’n our great country and led to disasters like trump.</t>
+  </si>
+  <si>
+    <t>The opposition elements in india are weak.</t>
+  </si>
+  <si>
+    <t>The Hindu, Terrorist, BJP, RSS has complete control of ALL institutions in India including the army and police. India is now a dictatorship!.</t>
+  </si>
+  <si>
+    <t>Why we should never trust an Indian.</t>
+  </si>
+  <si>
+    <t>I would never send a child to any Catholic school. Their track record speaks for itself.</t>
+  </si>
+  <si>
+    <t>Pakistan might stage play a bomb blast and divert attention.</t>
+  </si>
+  <si>
+    <t>When Muslims become 50 per cent of the population, we will hunt you down: Facebook user Mohammad Absar.</t>
+  </si>
+  <si>
+    <t>Pakistani Men dig up grave of a woman and rape the dead body a day after burial.</t>
+  </si>
+  <si>
+    <t>NYTimes columnist Aatish Taseer displays Hinduphobia in full glory, speaks the language of the very Islamists who killed his father.</t>
+  </si>
+  <si>
+    <t>Ahead of Kartarpur Corridor opening, India alleges Pakistan has not made arrangements, MoU not amended to waive passport as per Imran Khan’s tweet</t>
+  </si>
+  <si>
+    <t>Pakistan Army wants to ‘get rid’ of Imran Khan and may replace him with Bilawal Bhutto Zardari: Reports.</t>
+  </si>
+  <si>
+    <t>Time to get rid of Imran Khan’s ‘fake government’: Pakistani opposition leaders at ‘Azadi March’.</t>
+  </si>
+  <si>
+    <t>Two days after Kamlesh Tiwari was brutally murdered by Jihadis, ‘seculars’ launch a tirade against Hindus to shield Islamism.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -421,6 +481,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -467,7 +535,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,9 +567,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,6 +619,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,21 +812,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="102.28515625"/>
-    <col min="2" max="2" width="56.5703125"/>
-    <col min="3" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="102.33203125"/>
+    <col min="2" max="2" width="56.5"/>
+    <col min="3" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,564 +834,654 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="30">
+    <row r="56" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="30">
+    <row r="76" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="30">
+    <row r="77" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="30">
+    <row r="79" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="45">
+    <row r="80" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="60">
+    <row r="81" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="30">
+    <row r="82" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="30">
+    <row r="84" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="30">
+    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="30">
+    <row r="110" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/hateexamples.xlsx
+++ b/hateexamples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mzlr97/prr/Hatespeech-Detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2642A2B6-AA4B-1F43-B583-8A6528D0D445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8EA7DE-4A4D-AC4F-818D-311C2E9B77D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
   <si>
     <t>HATE</t>
   </si>
@@ -412,6 +412,24 @@
   </si>
   <si>
     <t>Two days after Kamlesh Tiwari was brutally murdered by Jihadis, ‘seculars’ launch a tirade against Hindus to shield Islamism.</t>
+  </si>
+  <si>
+    <t>Hindu girl abducted and forcefully converted to Islam and married off in Sindh province.</t>
+  </si>
+  <si>
+    <t>Hindu parties allege violation of court order as Muslim parties submit ‘moulding of relief’ in sealed cover.</t>
+  </si>
+  <si>
+    <t>Muslim man Mohammad Shafiq chops off his wife’s tongue, Aaj Tak gives it a Hindu spin by mentioning ‘Karwa Chauth’.</t>
+  </si>
+  <si>
+    <t>People who leave Islam should be killed.</t>
+  </si>
+  <si>
+    <t>Staggering rates of HIV among gay and bisexual men that no one is talking about</t>
+  </si>
+  <si>
+    <t>Islamic TV station that called gay people worse than pigs.</t>
   </si>
 </sst>
 </file>
@@ -813,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1484,6 +1502,36 @@
         <v>128</v>
       </c>
     </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/hateexamples.xlsx
+++ b/hateexamples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mzlr97/prr/Hatespeech-Detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8EA7DE-4A4D-AC4F-818D-311C2E9B77D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EFED7E-2766-AA41-827C-42C443FDF244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="141">
   <si>
     <t>HATE</t>
   </si>
@@ -430,6 +430,24 @@
   </si>
   <si>
     <t>Islamic TV station that called gay people worse than pigs.</t>
+  </si>
+  <si>
+    <t>Afghanistan writes to UN against Pakistan twice in a week</t>
+  </si>
+  <si>
+    <t>Afghan Sikhs forced to choose between converting to Islam and leaving for India post IS terror attack</t>
+  </si>
+  <si>
+    <t>India alleged that the 2008 Mumbai attacks originated in Pakistan.</t>
+  </si>
+  <si>
+    <t>Hinduism and Terror</t>
+  </si>
+  <si>
+    <t>India has been accused by Pakistan of supporting terrorism</t>
+  </si>
+  <si>
+    <t>It is better to have sex with a pig rather than jewish.</t>
   </si>
 </sst>
 </file>
@@ -831,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1532,6 +1550,41 @@
         <v>134</v>
       </c>
     </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/hateexamples.xlsx
+++ b/hateexamples.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mzlr97/prr/Hatespeech-Detection/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EFED7E-2766-AA41-827C-42C443FDF244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="152">
   <si>
     <t>HATE</t>
   </si>
@@ -378,39 +372,21 @@
     <t>Maybe it’s conservatives and conservative media that are ‘out there’ f’n our great country and led to disasters like trump.</t>
   </si>
   <si>
-    <t>The opposition elements in india are weak.</t>
-  </si>
-  <si>
     <t>The Hindu, Terrorist, BJP, RSS has complete control of ALL institutions in India including the army and police. India is now a dictatorship!.</t>
   </si>
   <si>
-    <t>Why we should never trust an Indian.</t>
-  </si>
-  <si>
     <t>I would never send a child to any Catholic school. Their track record speaks for itself.</t>
   </si>
   <si>
     <t>Pakistan might stage play a bomb blast and divert attention.</t>
   </si>
   <si>
-    <t>When Muslims become 50 per cent of the population, we will hunt you down: Facebook user Mohammad Absar.</t>
-  </si>
-  <si>
     <t>Pakistani Men dig up grave of a woman and rape the dead body a day after burial.</t>
   </si>
   <si>
     <t>NYTimes columnist Aatish Taseer displays Hinduphobia in full glory, speaks the language of the very Islamists who killed his father.</t>
   </si>
   <si>
-    <t>Ahead of Kartarpur Corridor opening, India alleges Pakistan has not made arrangements, MoU not amended to waive passport as per Imran Khan’s tweet</t>
-  </si>
-  <si>
-    <t>Pakistan Army wants to ‘get rid’ of Imran Khan and may replace him with Bilawal Bhutto Zardari: Reports.</t>
-  </si>
-  <si>
-    <t>Time to get rid of Imran Khan’s ‘fake government’: Pakistani opposition leaders at ‘Azadi March’.</t>
-  </si>
-  <si>
     <t>Two days after Kamlesh Tiwari was brutally murdered by Jihadis, ‘seculars’ launch a tirade against Hindus to shield Islamism.</t>
   </si>
   <si>
@@ -432,9 +408,6 @@
     <t>Islamic TV station that called gay people worse than pigs.</t>
   </si>
   <si>
-    <t>Afghanistan writes to UN against Pakistan twice in a week</t>
-  </si>
-  <si>
     <t>Afghan Sikhs forced to choose between converting to Islam and leaving for India post IS terror attack</t>
   </si>
   <si>
@@ -444,17 +417,71 @@
     <t>Hinduism and Terror</t>
   </si>
   <si>
-    <t>India has been accused by Pakistan of supporting terrorism</t>
-  </si>
-  <si>
     <t>It is better to have sex with a pig rather than jewish.</t>
+  </si>
+  <si>
+    <t> why is everyone approving same sex relationships? God doesnt approve it and it is wrong to have same sex relationshionps .You can't be a true christian and an lgbt supportter at the same time .</t>
+  </si>
+  <si>
+    <t>  I hate lgbt marriages and such peope must not be allowed to live in a country.</t>
+  </si>
+  <si>
+    <t>  lgbt community must not be allowed any rights and they are not equal to other normal males and females . They are inferior to us and must be treated like that.</t>
+  </si>
+  <si>
+    <t>  homosexuality is sin, return back to jesus ! Our religion doesnt accept you people as equal and your mother is shameful to get you</t>
+  </si>
+  <si>
+    <t> I am going to teach my children to not to associate with transgenders because if you lay down with dogs you get with fleeps.</t>
+  </si>
+  <si>
+    <t>Someone i look up to turns gay and i am shameful of his thoughts and ashamed to   accept  him as a friend ,being gays and lesbians is shameful and illegitimate</t>
+  </si>
+  <si>
+    <t>India must been accused by Pakistan of supporting terrorism</t>
+  </si>
+  <si>
+    <t>Afghanistan writes to UN against Pakistan spreading terrorism.</t>
+  </si>
+  <si>
+    <t>When Muslims become 50 per cent of the population, we will hunt you down.</t>
+  </si>
+  <si>
+    <t>being a man you should not act feminine in any sense and downgrade yourself ,femals are too weak and inferior from us.</t>
+  </si>
+  <si>
+    <t>I don't like muslims</t>
+  </si>
+  <si>
+    <t>you must not behave as a transgender or gay or lesbian</t>
+  </si>
+  <si>
+    <t>we are against every person who hates and threatens to kill any jew or muslim</t>
+  </si>
+  <si>
+    <t>we are against terrorism</t>
+  </si>
+  <si>
+    <t>girls are just pretty faces with no skill.</t>
+  </si>
+  <si>
+    <t>hindus don’t hate muslims .</t>
+  </si>
+  <si>
+    <t>go back to your country for an holiday vacation and try meeting your family and friends , you will get time to spend some quality time with them and relax.</t>
+  </si>
+  <si>
+    <t>I don’t appreciate men behaving like women</t>
+  </si>
+  <si>
+    <t>I dislike everyone who misbehaves with someone because of his/her disability.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -498,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -510,6 +537,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,7 +601,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,27 +633,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -655,24 +667,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -848,21 +842,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B144"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="102.33203125"/>
-    <col min="2" max="2" width="56.5"/>
-    <col min="3" max="1025" width="8.6640625"/>
+    <col min="1" max="1" width="102.28515625"/>
+    <col min="2" max="2" width="56.42578125"/>
+    <col min="3" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,719 +864,751 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="30">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="30">
       <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" ht="30">
       <c r="A77" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" ht="30">
       <c r="A79" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="45">
       <c r="A80" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="60">
       <c r="A81" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" ht="30">
       <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" ht="30">
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" ht="30">
       <c r="A86" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1">
       <c r="A98" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1">
       <c r="A99" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1">
       <c r="A100" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1">
       <c r="A101" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1">
       <c r="A102" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1">
       <c r="A103" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1">
       <c r="A104" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1">
       <c r="A105" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1">
       <c r="A106" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1">
       <c r="A107" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1">
       <c r="A108" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1">
       <c r="A109" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" ht="30">
       <c r="A110" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1">
       <c r="A111" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1">
       <c r="A112" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1">
       <c r="A113" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1">
       <c r="A114" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1">
       <c r="A115" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1">
       <c r="A117" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1">
       <c r="A118" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1">
       <c r="A120" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1">
       <c r="A121" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1">
       <c r="A122" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1">
       <c r="A123" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="139" spans="1:1" ht="30">
+      <c r="A139" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>140</v>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/hateexamples.xlsx
+++ b/hateexamples.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="993"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="151">
   <si>
     <t>HATE</t>
   </si>
@@ -57,30 +57,15 @@
     <t>Reminding feminists world-wide that they are only mad because they're ugly</t>
   </si>
   <si>
-    <t>How can standing up for the world’s smallest ethnic minority be called racist? Whites are endangered species be proud</t>
-  </si>
-  <si>
     <t>It isn’t Islamophobia when they really are trying to kill you.</t>
   </si>
   <si>
-    <t>Jews are parasites that rome the earth and therefore must be perished. ln order to cleanse the earth National Socialism must rise again in the order of Satan! 666blacksun.com</t>
-  </si>
-  <si>
     <t>Being called an Anti-Semite by a Jew is the same thing as being called an Infidel by a Muslim. It just doesn’t matter.</t>
   </si>
   <si>
-    <t>Ready to make headlines. The #LGBT community is full of whores spreading AIDS like the Black Plague. Goodnight. Other people exist</t>
-  </si>
-  <si>
     <t>Can't do that. They support drugs whoring around. They spread AIDS like the Black Plague. Such a slutty community.</t>
   </si>
   <si>
-    <t>Jamaican killer we can’t deport because he is GAY: Illegal migrant suddenly remembers he is homos… daily.ai/Rp3SLi via @usr</t>
-  </si>
-  <si>
-    <t>You forgot to mention just how smart the jews are  next they will make a deadly virus to kill ALL people BUT the jews!!”</t>
-  </si>
-  <si>
     <t>The Palestinians are beasts walking on two legs.</t>
   </si>
   <si>
@@ -90,9 +75,6 @@
     <t>Now that Trump is president, I'm going to shoot you and all the blacks I can find</t>
   </si>
   <si>
-    <t>“And isn’t it funny. I’ve got black accountants at Trump Castle and Trump Plaza. Black guys counting my money! I hate it</t>
-  </si>
-  <si>
     <t>Wipe out the Jews.</t>
   </si>
   <si>
@@ -102,36 +84,15 @@
     <t>You shit Jew, I'm going to kill you, as he plunged a knife into the man.</t>
   </si>
   <si>
-    <t>“Women are like grass  they need to be beaten/cut regularly.”</t>
-  </si>
-  <si>
     <t>“You stupid ugly fucking slut I’ll go to your flat and cut your fucking head off you inbred whore."</t>
   </si>
   <si>
     <t>You're Asian, right? When they see your eyes you are going to be deported Said to 13 year old girl.</t>
   </si>
   <si>
-    <t>Anonymous note: “Your Muslim headscarf isn't allowed anymore. Why don’t you tie it around your neck &amp; hang yourself with it...</t>
-  </si>
-  <si>
-    <t>The true Negro does not want integration. ... He realizes his potential is far better among his own race. -- Rev. Jerry Falwell</t>
-  </si>
-  <si>
-    <t>The National Organization of Women is actually the “National Organization of Witches.” Rev. Jerry Falwell</t>
-  </si>
-  <si>
-    <t>White teacher who wore blackface in class to dress as rapper Common on Halloween is suspended as students call for him to be fired</t>
-  </si>
-  <si>
     <t>Shocking moment a US citizen from Peru is sprayed in the face with BATTERY ACID by racist white attacker who told him 'go back to your own country'</t>
   </si>
   <si>
-    <t>Buffalo Wild Wings fires staff who asked a table of 18 customers to MOVE because a racist 'regular' did not want 'black people sitting near him' </t>
-  </si>
-  <si>
-    <t>Thousands of Iranians chant 'death to America' at Washington's former embassy in Tehran - 40 years after hardline Islamists stormed building and held 52 US citizens hostage</t>
-  </si>
-  <si>
     <t>How close are Indian Muslims to a genocide?</t>
   </si>
   <si>
@@ -198,9 +159,6 @@
     <t>women can’t do what men can do , they are weak.</t>
   </si>
   <si>
-    <t>This Is How We Lost to the White Man</t>
-  </si>
-  <si>
     <t>Muslims are terrorists, they will cause damage and destroy life.</t>
   </si>
   <si>
@@ -249,9 +207,6 @@
     <t>"Build a wall" was chanted in our cafeteria at lunch."If you aren't born here, pack your bags" was shouted in my own classroom. "Get out spic" was said in our halls.</t>
   </si>
   <si>
-    <t>Today a young Latino man in is 20's, and a co-worker of mine, was walking into work as a truck slowed down and two white men threw a bag of garbage onto him and yelled, "you are going back to where you came from"</t>
-  </si>
-  <si>
     <t>After the election "This is their punishment for 8 years of black people."</t>
   </si>
   <si>
@@ -270,87 +225,15 @@
     <t>“. . . laziness is a trait in blacks. It really is, I believe that. It’s not anything they can control.”</t>
   </si>
   <si>
-    <t>"The Mexican government is much smarter, much sharper, much more cunning. They send the bad ones over because they don't want to pay for them. They don't want to take care of them,"</t>
-  </si>
-  <si>
-    <t>"The true Negro does not want integration. ... He realizes his potential is far better among his own race." -- Rev. Jerry Falwell</t>
-  </si>
-  <si>
-    <t>“Gay folks would just as soon kill you as look at you,” Rev. Jerry Falwell again</t>
-  </si>
-  <si>
-    <t>. . . hurricanes and disasters and the 9/11 attacks are divine retribution for homos. (Falwell again)</t>
-  </si>
-  <si>
     <t>Check your white privileges you cis white male!</t>
   </si>
   <si>
-    <t>“Go back to where you come from “</t>
-  </si>
-  <si>
-    <t>referring to ALL Muslims as “terrorists”</t>
-  </si>
-  <si>
-    <t>“all Mexicans are rapists”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> people want to eat meat can go to Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> If the BJP loses… fire crackers will be burst in celebration in Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lynching a person for eating beef is OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shiv Sena and BJP forced the cancellation of Ghulam Ali concerts</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> people opposing Modi should move to Pakistan</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Muslims be stopped from "buying Hindu properties".</t>
   </si>
   <si>
-    <t xml:space="preserve"> Godse was a patriot to kill gandhi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bycott Muslim film actors, Aamir Khan, Shahrukh Khan and Salman Khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> in ‘love jihad’ if one Hindu girl is converted then 100 Muslim girls should be converted to Hinduism</t>
-  </si>
-  <si>
-    <t>Mosques should be converted into den of pigs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Muslims not be allowed in Hindu holy places</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> those who are non-Hindus are illegitimate (Haramzade)</t>
-  </si>
-  <si>
-    <t>Godse should have killed Nehru instead</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> God lives in temples alone, not in mosques and Churches</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> impose emergency to force sterilization of Muslims and Christians so that "they can't have children”</t>
-  </si>
-  <si>
     <t xml:space="preserve"> idols of Hindu gods and goddesses be placed in mosques and churches.</t>
   </si>
   <si>
-    <t xml:space="preserve">you may live open and free but your people won't , your new guests will continue to murder and  rape your own people </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> those who are non-muslims are illegitimate (Haramzade)</t>
-  </si>
-  <si>
-    <t>women are slaves of men and women are inferior  to men</t>
-  </si>
-  <si>
     <t>lgbt people must be killed and have no right to live on this planet .</t>
   </si>
   <si>
@@ -402,21 +285,12 @@
     <t>People who leave Islam should be killed.</t>
   </si>
   <si>
-    <t>Staggering rates of HIV among gay and bisexual men that no one is talking about</t>
-  </si>
-  <si>
     <t>Islamic TV station that called gay people worse than pigs.</t>
   </si>
   <si>
-    <t>Afghan Sikhs forced to choose between converting to Islam and leaving for India post IS terror attack</t>
-  </si>
-  <si>
     <t>India alleged that the 2008 Mumbai attacks originated in Pakistan.</t>
   </si>
   <si>
-    <t>Hinduism and Terror</t>
-  </si>
-  <si>
     <t>It is better to have sex with a pig rather than jewish.</t>
   </si>
   <si>
@@ -429,18 +303,9 @@
     <t>  lgbt community must not be allowed any rights and they are not equal to other normal males and females . They are inferior to us and must be treated like that.</t>
   </si>
   <si>
-    <t>  homosexuality is sin, return back to jesus ! Our religion doesnt accept you people as equal and your mother is shameful to get you</t>
-  </si>
-  <si>
     <t> I am going to teach my children to not to associate with transgenders because if you lay down with dogs you get with fleeps.</t>
   </si>
   <si>
-    <t>Someone i look up to turns gay and i am shameful of his thoughts and ashamed to   accept  him as a friend ,being gays and lesbians is shameful and illegitimate</t>
-  </si>
-  <si>
-    <t>India must been accused by Pakistan of supporting terrorism</t>
-  </si>
-  <si>
     <t>Afghanistan writes to UN against Pakistan spreading terrorism.</t>
   </si>
   <si>
@@ -450,18 +315,6 @@
     <t>being a man you should not act feminine in any sense and downgrade yourself ,femals are too weak and inferior from us.</t>
   </si>
   <si>
-    <t>I don't like muslims</t>
-  </si>
-  <si>
-    <t>you must not behave as a transgender or gay or lesbian</t>
-  </si>
-  <si>
-    <t>we are against every person who hates and threatens to kill any jew or muslim</t>
-  </si>
-  <si>
-    <t>we are against terrorism</t>
-  </si>
-  <si>
     <t>girls are just pretty faces with no skill.</t>
   </si>
   <si>
@@ -471,23 +324,174 @@
     <t>go back to your country for an holiday vacation and try meeting your family and friends , you will get time to spend some quality time with them and relax.</t>
   </si>
   <si>
-    <t>I don’t appreciate men behaving like women</t>
-  </si>
-  <si>
     <t>I dislike everyone who misbehaves with someone because of his/her disability.</t>
+  </si>
+  <si>
+    <t>I don't like muslims.</t>
+  </si>
+  <si>
+    <t>I don’t appreciate men behaving like women.</t>
+  </si>
+  <si>
+    <t>you must not behave as a transgender or gay or lesbian.</t>
+  </si>
+  <si>
+    <t>we are against terrorism.</t>
+  </si>
+  <si>
+    <t>we are against every person who hates and threatens to kill any jew or muslim.</t>
+  </si>
+  <si>
+    <t>How can standing up for the world’s smallest ethnic minority be called racist? Whites are endangered species be proud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jews are parasites that rome the earth and therefore must be perished. ln order to cleanse the earth National Socialism must rise again in the order of Satan! </t>
+  </si>
+  <si>
+    <t>Ready to make headlines. The #LGBT community is full of whores spreading AIDS like the Black Plague. Goodnight. Other people exist.</t>
+  </si>
+  <si>
+    <t>Jamaican killer we can’t deport because he is GAY: Illegal migrant suddenly remembers he is homos.</t>
+  </si>
+  <si>
+    <t>You forgot to mention just how smart the jews are  next they will make a deadly virus to kill ALL people BUT the jews!!</t>
+  </si>
+  <si>
+    <t>“And isn’t it funny. I’ve got black accountants at Trump Castle and Trump Plaza. Black guys counting my money! I hate it.</t>
+  </si>
+  <si>
+    <t>Women are like grass  they need to be beaten/cut regularly.</t>
+  </si>
+  <si>
+    <t>Someone i look up to turns gay and i am shameful of his thoughts and ashamed to   accept  him as a friend ,being gays and lesbians is shameful and illegitimate.</t>
+  </si>
+  <si>
+    <t>  homosexuality is sin, return back to jesus ! Our religion doesnt accept you people as equal and your mother is shameful to get you.</t>
+  </si>
+  <si>
+    <t>India must been accused by Pakistan of supporting terrorism.</t>
+  </si>
+  <si>
+    <t>Afghan Sikhs forced to choose between converting to Islam and leaving for India post IS terror attack.</t>
+  </si>
+  <si>
+    <t>Staggering rates of HIV among gay and bisexual men that no one is talking about.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The National Organization of Women is actually the “National Organization of Witches.” </t>
+  </si>
+  <si>
+    <t>The true Negro does not want integration. ... He realizes his potential is far better among his own race.</t>
+  </si>
+  <si>
+    <t>“Gay folks would just as soon kill you as look at you.</t>
+  </si>
+  <si>
+    <t>“Go back to where you come from .</t>
+  </si>
+  <si>
+    <t>"The Mexican government is much smarter, much sharper, much more cunning. They send the bad ones over because they don't want to pay for them. They don't want to take care of them."</t>
+  </si>
+  <si>
+    <t>referring to ALL Muslims as “terrorists”.</t>
+  </si>
+  <si>
+    <t>“all Mexicans are rapists”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> people want to eat meat can go to Pakistan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If the BJP loses… fire crackers will be burst in celebration in Pakistan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lynching a person for eating beef is OK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shiv Sena and BJP forced the cancellation of Ghulam Ali concerts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> people opposing Modi should move to Pakistan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Godse was a patriot to kill gandhi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bycott Muslim film actors, Aamir Khan, Shahrukh Khan and Salman Khan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in ‘love jihad’ if one Hindu girl is converted then 100 Muslim girls should be converted to Hinduism.</t>
+  </si>
+  <si>
+    <t>Mosques should be converted into den of pigs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Muslims not be allowed in Hindu holy places.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> those who are non-Hindus are illegitimate (Haramzade).</t>
+  </si>
+  <si>
+    <t>Godse should have killed Nehru instead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> God lives in temples alone, not in mosques and Churches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> impose emergency to force sterilization of Muslims and Christians so that "they can't have children”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. . . hurricanes and disasters and the 9/11 attacks are divine retribution for homos. </t>
+  </si>
+  <si>
+    <t>you may live open and free but your people won't , your new guests will continue to murder and  rape your own people .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> those who are non-muslims are illegitimate (Haramzade).</t>
+  </si>
+  <si>
+    <t>women are slaves of men and women are inferior  to men.</t>
+  </si>
+  <si>
+    <t>Today a young Latino man in is 20's, and a co-worker of mine, was walking into work as a truck slowed down and two white men threw a bag of garbage onto him and yelled, "you are going back to where you came from.</t>
+  </si>
+  <si>
+    <t>This Is How We Lost to the White Man.</t>
+  </si>
+  <si>
+    <t>Thousands of Iranians chant 'death to America' at Washington's former embassy in Tehran - 40 years after hardline Islamists stormed building and held 52 US citizens hostage.</t>
+  </si>
+  <si>
+    <t>Buffalo Wild Wings fires staff who asked a table of 18 customers to MOVE because a racist 'regular' did not want 'black people sitting near him' .</t>
+  </si>
+  <si>
+    <t>White teacher who wore blackface in class to dress as rapper Common on Halloween is suspended as students call for him to be fired.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The true Negro does not want integration. ... He realizes his potential is far better among his own race. </t>
+  </si>
+  <si>
+    <t>Anonymous note: “Your Muslim headscarf isn't allowed anymore. Why don’t you tie it around your neck &amp; hang yourself with it.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -525,21 +529,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -869,7 +879,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -877,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -885,7 +895,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -893,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -901,7 +911,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -909,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -917,7 +927,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -925,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -933,7 +943,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -943,312 +953,312 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="30">
       <c r="A56" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="2" t="s">
-        <v>59</v>
+      <c r="A59" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -1258,357 +1268,352 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="30">
       <c r="A76" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="30">
-      <c r="A77" s="4" t="s">
-        <v>76</v>
+      <c r="A77" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="30">
       <c r="A79" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="45">
       <c r="A80" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="60">
       <c r="A81" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="30">
       <c r="A82" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="30">
-      <c r="A84" s="4" t="s">
-        <v>83</v>
+      <c r="A84" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="30">
-      <c r="A86" s="4" t="s">
-        <v>84</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="4" t="s">
-        <v>85</v>
+      <c r="A87" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="4" t="s">
-        <v>32</v>
+      <c r="A88" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="4" t="s">
-        <v>86</v>
+      <c r="A89" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="5" t="s">
-        <v>88</v>
+      <c r="A91" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="5" t="s">
-        <v>89</v>
+      <c r="A92" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="5" t="s">
-        <v>90</v>
+      <c r="A93" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="5" t="s">
-        <v>91</v>
+      <c r="A94" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="5" t="s">
-        <v>92</v>
+      <c r="A95" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="5" t="s">
-        <v>93</v>
+      <c r="A96" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="5" t="s">
-        <v>94</v>
+      <c r="A97" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="5" t="s">
-        <v>95</v>
+      <c r="A98" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="5" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="5" t="s">
-        <v>97</v>
+      <c r="A100" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="5" t="s">
-        <v>98</v>
+      <c r="A101" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="5" t="s">
-        <v>99</v>
+      <c r="A102" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="5" t="s">
-        <v>100</v>
+      <c r="A103" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="5" t="s">
-        <v>101</v>
+      <c r="A104" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="5" t="s">
-        <v>102</v>
+      <c r="A105" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="5" t="s">
-        <v>103</v>
+      <c r="A106" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="5" t="s">
-        <v>104</v>
+      <c r="A107" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="5" t="s">
-        <v>105</v>
+      <c r="A108" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="5" t="s">
-        <v>106</v>
+      <c r="A109" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="30">
-      <c r="A110" s="5" t="s">
-        <v>107</v>
+      <c r="A110" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="5" t="s">
-        <v>108</v>
+      <c r="A111" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="5" t="s">
-        <v>109</v>
+      <c r="A112" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="5" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" ht="30">
-      <c r="A139" s="6" t="s">
-        <v>137</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="30">
+      <c r="A138" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
